--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB38E5-B5A7-48E1-9D87-D06A1B0B69E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACAB0BB-1A6E-4C24-A660-39337B489358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11350" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Generation Log</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>1 bis 47 Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDs </t>
+  </si>
+  <si>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D4357F-5063-4EF7-AA12-B87B4765B76C}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +822,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>130</v>
       </c>
@@ -827,7 +833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>131</v>
       </c>
@@ -845,7 +851,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>140</v>
       </c>
@@ -863,7 +869,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>150</v>
       </c>
@@ -881,12 +887,12 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>200</v>
       </c>
@@ -906,12 +912,50 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="H45" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>28</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46">
+        <v>193</v>
+      </c>
+      <c r="M46">
+        <v>197</v>
+      </c>
+      <c r="N46">
+        <v>202</v>
+      </c>
+      <c r="O46">
+        <v>356</v>
+      </c>
+      <c r="P46">
+        <v>428</v>
+      </c>
+      <c r="Q46">
+        <v>472</v>
+      </c>
+      <c r="R46">
+        <v>531</v>
+      </c>
+      <c r="S46">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACAB0BB-1A6E-4C24-A660-39337B489358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B045D292-BE96-4330-AB04-65B41E96832B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ibkGuerza" sheetId="1" r:id="rId1"/>
+    <sheet name="ibkIltis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Generation Log</t>
   </si>
@@ -511,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D4357F-5063-4EF7-AA12-B87B4765B76C}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,4 +963,364 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF7442-AE2A-41D1-AC75-AC2A4CC2EA55}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B045D292-BE96-4330-AB04-65B41E96832B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C166D-E85D-4C3D-A896-BD60DE25F440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Generation Log</t>
   </si>
@@ -137,6 +137,36 @@
   </si>
   <si>
     <t>….</t>
+  </si>
+  <si>
+    <t>GenStatus</t>
+  </si>
+  <si>
+    <t>CalcStatus</t>
+  </si>
+  <si>
+    <t>PostStatus</t>
+  </si>
+  <si>
+    <t>Hero Parameters (fsu_fac=1.08)</t>
+  </si>
+  <si>
+    <t>t_p (200-1200)</t>
+  </si>
+  <si>
+    <t>Hero Parameters (but L=15000,  fsu_fac=1.08)</t>
+  </si>
+  <si>
+    <t>Hero Parameters (but L=8000, fsu_fac=1.08)</t>
+  </si>
+  <si>
+    <t>t_w (200-1200)</t>
+  </si>
+  <si>
+    <t>L (2000,18000)</t>
+  </si>
+  <si>
+    <t>Hero Parameters (fsu_fac=1.08, d1/4=30, d3=20, t_p=600)</t>
   </si>
 </sst>
 </file>
@@ -967,23 +997,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF7442-AE2A-41D1-AC75-AC2A4CC2EA55}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1000,10 +1031,16 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>501</v>
       </c>
@@ -1019,10 +1056,13 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1036,67 +1076,73 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>520</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>21</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>22</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1105,218 +1151,235 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>540</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>541</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>90</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>100</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>23</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>140</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>10</v>
       </c>
     </row>

--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C166D-E85D-4C3D-A896-BD60DE25F440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC5076-C426-448F-92C1-EC2DA573D605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>Generation Log</t>
   </si>
@@ -166,7 +166,16 @@
     <t>L (2000,18000)</t>
   </si>
   <si>
-    <t>Hero Parameters (fsu_fac=1.08, d1/4=30, d3=20, t_p=600)</t>
+    <t>ibkiltis</t>
+  </si>
+  <si>
+    <t>&gt; after plot 520 521 comparison</t>
+  </si>
+  <si>
+    <t>Hero Parameters (fsu_fac=1.08, d1/4_p/w=30, d3=20, t_p/w=700)</t>
+  </si>
+  <si>
+    <t>ibkGuerza</t>
   </si>
 </sst>
 </file>
@@ -221,11 +230,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF7442-AE2A-41D1-AC75-AC2A4CC2EA55}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,12 +1019,12 @@
     <col min="3" max="3" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>501</v>
       </c>
@@ -1060,7 +1070,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>510</v>
       </c>
@@ -1080,7 +1090,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>520</v>
       </c>
@@ -1100,80 +1110,94 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>521</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>522</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>523</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>540</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>541</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1184,118 +1208,141 @@
       <c r="E16">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="1"/>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>541</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
+        <v>542</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>110</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1304,15 +1351,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1323,41 +1370,41 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1368,18 +1415,35 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>150</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
         <v>10</v>
       </c>
     </row>

--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC5076-C426-448F-92C1-EC2DA573D605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F362B-8601-4517-AE88-86D9F98EAC3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Generation Log</t>
   </si>
@@ -166,16 +166,22 @@
     <t>L (2000,18000)</t>
   </si>
   <si>
-    <t>ibkiltis</t>
-  </si>
-  <si>
-    <t>&gt; after plot 520 521 comparison</t>
-  </si>
-  <si>
     <t>Hero Parameters (fsu_fac=1.08, d1/4_p/w=30, d3=20, t_p/w=700)</t>
   </si>
   <si>
     <t>ibkGuerza</t>
+  </si>
+  <si>
+    <t>idlWS2</t>
+  </si>
+  <si>
+    <t>ibkIltis</t>
+  </si>
+  <si>
+    <t>Error Files</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF7442-AE2A-41D1-AC75-AC2A4CC2EA55}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,12 +1025,12 @@
     <col min="3" max="3" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1049,8 +1055,11 @@
       <c r="H3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>501</v>
       </c>
@@ -1070,7 +1079,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>510</v>
       </c>
@@ -1090,7 +1099,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>520</v>
       </c>
@@ -1110,7 +1119,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>521</v>
       </c>
@@ -1127,15 +1136,13 @@
         <v>20</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>522</v>
       </c>
@@ -1152,10 +1159,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>523</v>
       </c>
@@ -1172,10 +1182,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>540</v>
       </c>
@@ -1210,10 +1222,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>541</v>
       </c>
@@ -1230,13 +1245,16 @@
         <v>20</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>542</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1249,7 +1267,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1283,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>70</v>
       </c>
@@ -1300,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>80</v>
       </c>
@@ -1317,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>90</v>
       </c>
@@ -1334,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>110</v>
       </c>

--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F362B-8601-4517-AE88-86D9F98EAC3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375A23A-2512-4277-9545-6EB6AE322E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,9 +1245,6 @@
         <v>20</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -1266,6 +1263,9 @@
         <v>20</v>
       </c>
       <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">

--- a/_workingFolder/CFBData/GenerationLog.xlsx
+++ b/_workingFolder/CFBData/GenerationLog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhnso\Documents\GitHub\StructuralEvaluationOfCFB\_workingFolder\CFBData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375A23A-2512-4277-9545-6EB6AE322E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1CA07-3238-42C6-BD8C-7AD2A15E31F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="1" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" activeTab="2" xr2:uid="{13CAE3C4-3EF5-4EF3-84E6-2C4B09A97B5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="ibkGuerza" sheetId="1" r:id="rId1"/>
-    <sheet name="ibkIltis" sheetId="2" r:id="rId2"/>
+    <sheet name="mf3 1D studie" sheetId="1" r:id="rId1"/>
+    <sheet name="mf1 1D studie" sheetId="2" r:id="rId2"/>
+    <sheet name="mf3 1.1 studien" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Generation Log</t>
   </si>
@@ -169,26 +170,53 @@
     <t>Hero Parameters (fsu_fac=1.08, d1/4_p/w=30, d3=20, t_p/w=700)</t>
   </si>
   <si>
-    <t>ibkGuerza</t>
-  </si>
-  <si>
     <t>idlWS2</t>
   </si>
   <si>
-    <t>ibkIltis</t>
-  </si>
-  <si>
     <t>Error Files</t>
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>10,12,13,14,15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>1.1 (old)</t>
+  </si>
+  <si>
+    <t>1.1 (after Abstimmung mit Anne)</t>
+  </si>
+  <si>
+    <t>Test parameter studie</t>
+  </si>
+  <si>
+    <t>siehe tab 1</t>
+  </si>
+  <si>
+    <t>very large amount of bridges (due to larger parameter space now, which can produce many more unsafe designs)</t>
+  </si>
+  <si>
+    <t>done to 71 start at 72</t>
+  </si>
+  <si>
+    <t>ibkiltis</t>
+  </si>
+  <si>
+    <t>28,…,193,197,202,356</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +227,14 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,12 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D4357F-5063-4EF7-AA12-B87B4765B76C}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,27 +608,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1013,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF7442-AE2A-41D1-AC75-AC2A4CC2EA55}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,41 +1075,66 @@
     <col min="3" max="3" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>501</v>
       </c>
@@ -1079,7 +1154,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>510</v>
       </c>
@@ -1099,7 +1174,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>520</v>
       </c>
@@ -1119,7 +1194,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>521</v>
       </c>
@@ -1142,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>522</v>
       </c>
@@ -1162,10 +1237,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="J9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>523</v>
       </c>
@@ -1183,11 +1258,14 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1204,7 +1282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>540</v>
       </c>
@@ -1221,14 +1299,13 @@
         <v>20</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>541</v>
       </c>
@@ -1245,8 +1322,13 @@
         <v>20</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>542</v>
       </c>
@@ -1263,11 +1345,10 @@
         <v>20</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1284,100 +1365,105 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>551</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>70</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>90</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>100</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1388,13 +1474,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1405,41 +1491,41 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>130</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>131</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1450,19 +1536,169 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>150</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4D8020-0070-4967-8FA0-56307B6B3877}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
